--- a/Assignments/Lab2/Lab2_Image_Measurements.xlsx
+++ b/Assignments/Lab2/Lab2_Image_Measurements.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cglennie/Google Drive/Teaching/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\metrology\Assignments\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEEFE6C-1840-40D8-A6D9-1B4C895F9B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{75C364A6-DE87-6144-BC09-176BD35C3EEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{75C364A6-DE87-6144-BC09-176BD35C3EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
   <si>
     <t>Observed (right-handed) coords</t>
   </si>
@@ -54,13 +56,154 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>Fiducial Coordinates</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Principal Point Offset</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Radial Lens Distortion Correction</t>
+  </si>
+  <si>
+    <t>Δxrad</t>
+  </si>
+  <si>
+    <t>Δyrad</t>
+  </si>
+  <si>
+    <t>Radial Lens Distortion Correction w/ Principal Point</t>
+  </si>
+  <si>
+    <t>x_corrected</t>
+  </si>
+  <si>
+    <t>y_corrected</t>
+  </si>
+  <si>
+    <t>Decentering  Lens Distortion Correction</t>
+  </si>
+  <si>
+    <t>Δxdec</t>
+  </si>
+  <si>
+    <t>Δydec</t>
+  </si>
+  <si>
+    <t>Decentering  Lens Distortion Correction w/ Principal Point</t>
+  </si>
+  <si>
+    <t>Atmospheric Refraction Correction</t>
+  </si>
+  <si>
+    <t>Δxatm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δyatm </t>
+  </si>
+  <si>
+    <t>Atmospheric Refraction Correction w/ Principal Point</t>
+  </si>
+  <si>
+    <t>Total Correction</t>
+  </si>
+  <si>
+    <t>x'</t>
+  </si>
+  <si>
+    <t>y'</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>radial</t>
+  </si>
+  <si>
+    <t>x:</t>
+  </si>
+  <si>
+    <t>y:</t>
+  </si>
+  <si>
+    <t>tangential</t>
+  </si>
+  <si>
+    <t>atmospheric</t>
+  </si>
+  <si>
+    <t>0.005528543275675541,</t>
+  </si>
+  <si>
+    <t>0.007353740131200001,</t>
+  </si>
+  <si>
+    <t>0.002917357101340846,</t>
+  </si>
+  <si>
+    <t>max radial distortion x</t>
+  </si>
+  <si>
+    <t>max radial distortion y</t>
+  </si>
+  <si>
+    <t>max tangential distortion x</t>
+  </si>
+  <si>
+    <t>max tangential distortion y</t>
+  </si>
+  <si>
+    <t>max atmospheric refraction x</t>
+  </si>
+  <si>
+    <t>max atmospheric refraction y</t>
+  </si>
+  <si>
+    <t>Max Magnitude</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>(ground):</t>
+  </si>
+  <si>
+    <t>27.642716378377706,</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>36.768700656,</t>
+  </si>
+  <si>
+    <t>14.58678550670423,</t>
+  </si>
+  <si>
+    <t>Max Magnitude (Ground)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,16 +211,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,12 +264,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,18 +639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41505D8-0590-404B-B559-74862A046BFF}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -426,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -446,7 +678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -466,7 +698,7 @@
         <v>-2081</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
@@ -486,7 +718,7 @@
         <v>-1167</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -506,7 +738,7 @@
         <v>-10787</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>103</v>
       </c>
@@ -526,7 +758,7 @@
         <v>-10048</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>104</v>
       </c>
@@ -546,7 +778,7 @@
         <v>-17085</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>105</v>
       </c>
@@ -566,7 +798,7 @@
         <v>-17690</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200</v>
       </c>
@@ -586,7 +818,7 @@
         <v>-854</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>201</v>
       </c>
@@ -606,7 +838,7 @@
         <v>-9528</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>202</v>
       </c>
@@ -626,7 +858,7 @@
         <v>-14416</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>203</v>
       </c>
@@ -649,4 +881,2218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE39372-2DCB-498D-8D68-0AAD49DFE969}">
+  <dimension ref="A1:S117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="J18:K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1">
+        <v>5.52854327567554E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2">
+        <v>4.1565981383999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3">
+        <v>2.91735710134084E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>-9.4491575999999995</v>
+      </c>
+      <c r="B4" s="7">
+        <v>96.243916839999997</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7">
+        <v>-105.38348800999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>98.762443820000001</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>85.032476110000005</v>
+      </c>
+      <c r="B5" s="7">
+        <v>103.74297129</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7">
+        <v>-10.13101048</v>
+      </c>
+      <c r="F5" s="7">
+        <v>109.69925298</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="J5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>-2.3239765700000001</v>
+      </c>
+      <c r="B6" s="7">
+        <v>-6.0006511199999997</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7">
+        <v>-95.028189889999993</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-4.8415533899999996</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="J6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="16">
+        <v>5.52854327567554E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>105.94904422</v>
+      </c>
+      <c r="B7" s="7">
+        <v>-0.40735266999999997</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7">
+        <v>10.328942469999999</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.0188605600000002</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="J7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="16">
+        <v>5.52854327567554E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>18.914589790000001</v>
+      </c>
+      <c r="B8" s="7">
+        <v>-81.814100030000006</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7">
+        <v>-72.543264769999993</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-79.780304020000003</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="J8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="16">
+        <v>7.3537401311999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>90.287116220000001</v>
+      </c>
+      <c r="B9" s="7">
+        <v>-91.045620490000005</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7">
+        <v>-1.41132094</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-86.936178350000006</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="J9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="16">
+        <v>4.1565981383999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>18.16974591</v>
+      </c>
+      <c r="B10" s="7">
+        <v>109.54641947</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7">
+        <v>-77.845159690000003</v>
+      </c>
+      <c r="F10" s="7">
+        <v>113.38215047</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="J10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="16">
+        <v>2.91735710134084E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44.679097120000002</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7.4900880699999997</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7">
+        <v>-48.795093489999999</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10.170617200000001</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="J11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="16">
+        <v>2.91735710134084E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>-7.5846078400000003</v>
+      </c>
+      <c r="B12" s="7">
+        <v>-49.070735550000002</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7">
+        <v>-98.817429779999998</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-48.032778880000002</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>52.732474170000003</v>
+      </c>
+      <c r="B13" s="7">
+        <v>-93.136012460000003</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7">
+        <v>-38.930117539999998</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-90.029988090000003</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14">
+        <v>27.642716378377699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15">
+        <v>20.782990691999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16">
+        <v>14.586785506704199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>-9.4431575999999993</v>
+      </c>
+      <c r="B17" s="6">
+        <v>96.237916839999997</v>
+      </c>
+      <c r="C17" s="6">
+        <v>96.700102709999996</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7">
+        <v>-105.37748800999999</v>
+      </c>
+      <c r="F17" s="7">
+        <v>98.756443820000001</v>
+      </c>
+      <c r="G17" s="7">
+        <v>144.42039389999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>85.038476110000005</v>
+      </c>
+      <c r="B18" s="6">
+        <v>103.73697129</v>
+      </c>
+      <c r="C18" s="6">
+        <v>134.13762198000001</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7">
+        <v>-10.12501048</v>
+      </c>
+      <c r="F18" s="7">
+        <v>109.69325298</v>
+      </c>
+      <c r="G18" s="7">
+        <v>110.15954606</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>-2.3179765699999999</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-6.0066511199999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6.4383905600000002</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7">
+        <v>-95.022189890000007</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-4.8475533899999999</v>
+      </c>
+      <c r="G19" s="7">
+        <v>95.145758420000007</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="17">
+        <v>27.642716378377699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>105.95504422</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-0.41335266999999998</v>
+      </c>
+      <c r="C20" s="6">
+        <v>105.95585051</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7">
+        <v>10.33494247</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4.01286056</v>
+      </c>
+      <c r="G20" s="7">
+        <v>11.08666251</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="17">
+        <v>27.642716378377699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>18.920589790000001</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-81.820100030000006</v>
+      </c>
+      <c r="C21" s="6">
+        <v>83.979268200000007</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7">
+        <v>-72.537264769999993</v>
+      </c>
+      <c r="F21" s="7">
+        <v>-79.786304020000003</v>
+      </c>
+      <c r="G21" s="7">
+        <v>107.83092825999999</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="17">
+        <v>36.768700656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>90.293116220000002</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-91.051620490000005</v>
+      </c>
+      <c r="C22" s="6">
+        <v>128.23121473</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7">
+        <v>-1.40532094</v>
+      </c>
+      <c r="F22" s="7">
+        <v>-86.942178350000006</v>
+      </c>
+      <c r="G22" s="7">
+        <v>86.953535310000007</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="17">
+        <v>20.782990691999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>18.17574591</v>
+      </c>
+      <c r="B23" s="6">
+        <v>109.54041947</v>
+      </c>
+      <c r="C23" s="6">
+        <v>111.03810713999999</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7">
+        <v>-77.839159690000002</v>
+      </c>
+      <c r="F23" s="7">
+        <v>113.37615047</v>
+      </c>
+      <c r="G23" s="7">
+        <v>137.52485694000001</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="17">
+        <v>14.586785506704199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>44.685097120000002</v>
+      </c>
+      <c r="B24" s="6">
+        <v>7.4840880700000003</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45.307499139999997</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7">
+        <v>-48.789093489999999</v>
+      </c>
+      <c r="F24" s="7">
+        <v>10.1646172</v>
+      </c>
+      <c r="G24" s="7">
+        <v>49.836684140000003</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="17">
+        <v>14.586785506704199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>-7.5786078400000001</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-49.076735550000002</v>
+      </c>
+      <c r="C25" s="6">
+        <v>49.658446099999999</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7">
+        <v>-98.811429779999997</v>
+      </c>
+      <c r="F25" s="7">
+        <v>-48.038778880000002</v>
+      </c>
+      <c r="G25" s="7">
+        <v>109.87002744999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>52.738474170000003</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-93.142012460000004</v>
+      </c>
+      <c r="C26" s="6">
+        <v>107.0363543</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7">
+        <v>-38.924117539999997</v>
+      </c>
+      <c r="F26" s="7">
+        <v>-90.035988090000004</v>
+      </c>
+      <c r="G26" s="7">
+        <v>98.089581899999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>-7.6902181100000003E-5</v>
+      </c>
+      <c r="B30" s="13">
+        <v>7.8373209700000003E-4</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="13">
+        <v>-1.3379813300000001E-4</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1.2539137200000001E-4</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>1.3598862399999999E-3</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1.6589017800000001E-3</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="13">
+        <v>-1.94847665E-4</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2.11095823E-3</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>2.0432384699999999E-4</v>
+      </c>
+      <c r="B32" s="13">
+        <v>5.29471299E-4</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="13">
+        <v>-6.1495515799999995E-4</v>
+      </c>
+      <c r="F32" s="13">
+        <v>-3.1371913899999997E-5</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>1.7501426999999999E-3</v>
+      </c>
+      <c r="B33" s="13">
+        <v>-6.8276707700000004E-6</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="13">
+        <v>-8.9820792200000004E-4</v>
+      </c>
+      <c r="F33" s="13">
+        <v>-3.4875696299999998E-4</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>-1.3546815199999999E-4</v>
+      </c>
+      <c r="B34" s="13">
+        <v>5.8581777200000004E-4</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="13">
+        <v>-1.2931770599999999E-3</v>
+      </c>
+      <c r="F34" s="13">
+        <v>-1.4224112E-3</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>1.83844873E-3</v>
+      </c>
+      <c r="B35" s="13">
+        <v>-1.8538925599999999E-3</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="13">
+        <v>4.6325084800000004E-6</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2.8659672599999999E-4</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>3.5833048199999999E-4</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2.1595631699999999E-3</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="13">
+        <v>-9.4981665000000003E-4</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1.3834496100000001E-3</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>-2.6645048000000001E-3</v>
+      </c>
+      <c r="B37" s="13">
+        <v>-4.4626485900000002E-4</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="13">
+        <v>2.6380960299999998E-3</v>
+      </c>
+      <c r="F37" s="13">
+        <v>-5.4961538300000003E-4</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>4.1149011500000001E-4</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2.6646835400000002E-3</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="13">
+        <v>-1.8854509099999999E-3</v>
+      </c>
+      <c r="F38" s="13">
+        <v>-9.16642532E-4</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>9.11874494E-4</v>
+      </c>
+      <c r="B39" s="13">
+        <v>-1.6104718000000001E-3</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="13">
+        <v>-3.72906853E-4</v>
+      </c>
+      <c r="F39" s="13">
+        <v>-8.62576702E-4</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>-9.4432345000000009</v>
+      </c>
+      <c r="B43" s="7">
+        <v>96.23870058</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7">
+        <v>-105.37762180999999</v>
+      </c>
+      <c r="F43" s="7">
+        <v>98.756569209999995</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>85.039835999999994</v>
+      </c>
+      <c r="B44" s="7">
+        <v>103.73863018999999</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7">
+        <v>-10.125205319999999</v>
+      </c>
+      <c r="F44" s="7">
+        <v>109.69536393999999</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>-2.31777225</v>
+      </c>
+      <c r="B45" s="7">
+        <v>-6.0061216499999999</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="7">
+        <v>-95.02280485</v>
+      </c>
+      <c r="F45" s="7">
+        <v>-4.8475847600000002</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>105.95679436</v>
+      </c>
+      <c r="B46" s="7">
+        <v>-0.41335949999999999</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7">
+        <v>10.334044260000001</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4.0125118000000004</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>18.920454329999998</v>
+      </c>
+      <c r="B47" s="7">
+        <v>-81.819514209999994</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="7">
+        <v>-72.538557949999998</v>
+      </c>
+      <c r="F47" s="7">
+        <v>-79.787726430000006</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>90.294954669999996</v>
+      </c>
+      <c r="B48" s="7">
+        <v>-91.053474390000005</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7">
+        <v>-1.4053163</v>
+      </c>
+      <c r="F48" s="7">
+        <v>-86.941891749999996</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>18.176104240000001</v>
+      </c>
+      <c r="B49" s="7">
+        <v>109.54257903</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="7">
+        <v>-77.840109499999997</v>
+      </c>
+      <c r="F49" s="7">
+        <v>113.37753392</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>44.682432609999999</v>
+      </c>
+      <c r="B50" s="7">
+        <v>7.4836418</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7">
+        <v>-48.78645539</v>
+      </c>
+      <c r="F50" s="7">
+        <v>10.16406759</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>-7.5781963499999998</v>
+      </c>
+      <c r="B51" s="7">
+        <v>-49.07407087</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="7">
+        <v>-98.813315239999994</v>
+      </c>
+      <c r="F51" s="7">
+        <v>-48.039695520000002</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>52.739386039999999</v>
+      </c>
+      <c r="B52" s="7">
+        <v>-93.143622930000006</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="7">
+        <v>-38.92449044</v>
+      </c>
+      <c r="F52" s="7">
+        <v>-90.036850659999999</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>-1.26039073E-3</v>
+      </c>
+      <c r="B56" s="13">
+        <v>-9.6536231199999994E-5</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="13">
+        <v>-5.5419382199999997E-3</v>
+      </c>
+      <c r="F56" s="13">
+        <v>2.3074431000000002E-3</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>-4.5845293799999997E-3</v>
+      </c>
+      <c r="B57" s="13">
+        <v>-2.85845505E-3</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="13">
+        <v>-1.63379657E-3</v>
+      </c>
+      <c r="F57" s="13">
+        <v>-1.441065E-4</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>-7.3668142699999998E-6</v>
+      </c>
+      <c r="B58" s="13">
+        <v>-5.1387641299999999E-6</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="13">
+        <v>-3.6604366899999998E-3</v>
+      </c>
+      <c r="F58" s="13">
+        <v>-2.3538077299999999E-4</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>-4.5322000000000001E-3</v>
+      </c>
+      <c r="B59" s="13">
+        <v>-1.2562818499999999E-4</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="13">
+        <v>-4.6313018100000003E-5</v>
+      </c>
+      <c r="F59" s="13">
+        <v>-1.30631173E-5</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>-1.0077423099999999E-3</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1.66539482E-4</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="13">
+        <v>-3.1231777100000002E-3</v>
+      </c>
+      <c r="F60" s="13">
+        <v>-1.8561465100000001E-3</v>
+      </c>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>-4.2067488E-3</v>
+      </c>
+      <c r="B61" s="13">
+        <v>1.80896902E-3</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="13">
+        <v>-1.0212221299999999E-3</v>
+      </c>
+      <c r="F61" s="13">
+        <v>-3.1047984100000001E-4</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>-1.79721695E-3</v>
+      </c>
+      <c r="B62" s="13">
+        <v>-9.8062216000000002E-4</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="13">
+        <v>-3.9607280999999998E-3</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1.8295522699999999E-3</v>
+      </c>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>-8.2201677799999999E-4</v>
+      </c>
+      <c r="B63" s="13">
+        <v>-1.16524865E-4</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="13">
+        <v>-9.6296230000000003E-4</v>
+      </c>
+      <c r="F63" s="13">
+        <v>1.00572638E-4</v>
+      </c>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>-3.56484897E-4</v>
+      </c>
+      <c r="B64" s="13">
+        <v>-1.8926853500000001E-4</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="13">
+        <v>-4.3694023899999998E-3</v>
+      </c>
+      <c r="F64" s="13">
+        <v>-1.4820806E-3</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>-2.1705714000000002E-3</v>
+      </c>
+      <c r="B65" s="13">
+        <v>9.6974988500000004E-4</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="13">
+        <v>-1.7887160999999999E-3</v>
+      </c>
+      <c r="F65" s="13">
+        <v>-1.2596451900000001E-3</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>-9.4444179899999998</v>
+      </c>
+      <c r="B69" s="7">
+        <v>96.237820310000004</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="7">
+        <v>-105.38302994999999</v>
+      </c>
+      <c r="F69" s="7">
+        <v>98.758751259999997</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>85.033891580000002</v>
+      </c>
+      <c r="B70" s="7">
+        <v>103.73411283</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="7">
+        <v>-10.12664427</v>
+      </c>
+      <c r="F70" s="7">
+        <v>109.69310888</v>
+      </c>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>-2.31798394</v>
+      </c>
+      <c r="B71" s="7">
+        <v>-6.0066562599999997</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="7">
+        <v>-95.025850329999997</v>
+      </c>
+      <c r="F71" s="7">
+        <v>-4.8477887700000002</v>
+      </c>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>105.95051202000001</v>
+      </c>
+      <c r="B72" s="7">
+        <v>-0.41347830000000002</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="7">
+        <v>10.33489616</v>
+      </c>
+      <c r="F72" s="7">
+        <v>4.0128475000000003</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>18.919582049999999</v>
+      </c>
+      <c r="B73" s="7">
+        <v>-81.819933489999997</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="7">
+        <v>-72.540387949999996</v>
+      </c>
+      <c r="F73" s="7">
+        <v>-79.788160160000004</v>
+      </c>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>90.288909469999993</v>
+      </c>
+      <c r="B74" s="7">
+        <v>-91.049811529999999</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="7">
+        <v>-1.4063421599999999</v>
+      </c>
+      <c r="F74" s="7">
+        <v>-86.942488830000002</v>
+      </c>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>18.17394869</v>
+      </c>
+      <c r="B75" s="7">
+        <v>109.53943885</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="7">
+        <v>-77.843120420000005</v>
+      </c>
+      <c r="F75" s="7">
+        <v>113.37798002</v>
+      </c>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>44.684275100000001</v>
+      </c>
+      <c r="B76" s="7">
+        <v>7.4839715399999998</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="7">
+        <v>-48.790056450000002</v>
+      </c>
+      <c r="F76" s="7">
+        <v>10.16471778</v>
+      </c>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>-7.5789643299999998</v>
+      </c>
+      <c r="B77" s="7">
+        <v>-49.076924820000002</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="7">
+        <v>-98.815799190000007</v>
+      </c>
+      <c r="F77" s="7">
+        <v>-48.040260959999998</v>
+      </c>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>52.736303589999999</v>
+      </c>
+      <c r="B78" s="7">
+        <v>-93.141042709999994</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="7">
+        <v>-38.925906249999997</v>
+      </c>
+      <c r="F78" s="7">
+        <v>-90.037247730000004</v>
+      </c>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>1.5957177799999999E-4</v>
+      </c>
+      <c r="B82" s="13">
+        <v>-1.6262415799999999E-3</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="13">
+        <v>2.4040300100000001E-3</v>
+      </c>
+      <c r="F82" s="13">
+        <v>-2.2529807799999998E-3</v>
+      </c>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>-1.8148023E-3</v>
+      </c>
+      <c r="B83" s="13">
+        <v>-2.21384605E-3</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="13">
+        <v>1.8558631100000001E-4</v>
+      </c>
+      <c r="F83" s="13">
+        <v>-2.0106217299999999E-3</v>
+      </c>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>2.80757469E-5</v>
+      </c>
+      <c r="B84" s="13">
+        <v>7.2753632899999999E-5</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="13">
+        <v>1.5911310800000001E-3</v>
+      </c>
+      <c r="F84" s="13">
+        <v>8.1171491300000004E-5</v>
+      </c>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>-1.89261616E-3</v>
+      </c>
+      <c r="B85" s="13">
+        <v>7.3834893799999997E-6</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="13">
+        <v>-1.25611488E-4</v>
+      </c>
+      <c r="F85" s="13">
+        <v>-4.8772539199999998E-5</v>
+      </c>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>-2.97366251E-4</v>
+      </c>
+      <c r="B86" s="13">
+        <v>1.28592907E-3</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="13">
+        <v>1.3106417E-3</v>
+      </c>
+      <c r="F86" s="13">
+        <v>1.4416211800000001E-3</v>
+      </c>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>-1.85500723E-3</v>
+      </c>
+      <c r="B87" s="13">
+        <v>1.8705901499999999E-3</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="13">
+        <v>2.24540899E-5</v>
+      </c>
+      <c r="F87" s="13">
+        <v>1.3891542099999999E-3</v>
+      </c>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>-3.3496809999999998E-4</v>
+      </c>
+      <c r="B88" s="13">
+        <v>-2.01876426E-3</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="13">
+        <v>1.69798489E-3</v>
+      </c>
+      <c r="F88" s="13">
+        <v>-2.4731894700000001E-3</v>
+      </c>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>-5.8743876000000002E-4</v>
+      </c>
+      <c r="B89" s="13">
+        <v>-9.8387240899999999E-5</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="13">
+        <v>6.5219927999999997E-4</v>
+      </c>
+      <c r="F89" s="13">
+        <v>-1.3587782699999999E-4</v>
+      </c>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>1.01239667E-4</v>
+      </c>
+      <c r="B90" s="13">
+        <v>6.5559697299999995E-4</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="13">
+        <v>1.80792742E-3</v>
+      </c>
+      <c r="F90" s="13">
+        <v>8.7895323399999996E-4</v>
+      </c>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>-9.4827777900000001E-4</v>
+      </c>
+      <c r="B91" s="13">
+        <v>1.67476405E-3</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="13">
+        <v>6.6316113400000001E-4</v>
+      </c>
+      <c r="F91" s="13">
+        <v>1.5339684399999999E-3</v>
+      </c>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="9"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>-9.44299803</v>
+      </c>
+      <c r="B95" s="7">
+        <v>96.236290600000004</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="7">
+        <v>-105.37508398</v>
+      </c>
+      <c r="F95" s="7">
+        <v>98.754190840000007</v>
+      </c>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>85.03666131</v>
+      </c>
+      <c r="B96" s="7">
+        <v>103.73475744</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="7">
+        <v>-10.124824889999999</v>
+      </c>
+      <c r="F96" s="7">
+        <v>109.69124236</v>
+      </c>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>-2.3179485</v>
+      </c>
+      <c r="B97" s="7">
+        <v>-6.0065783699999997</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="7">
+        <v>-95.020598759999999</v>
+      </c>
+      <c r="F97" s="7">
+        <v>-4.8474722100000003</v>
+      </c>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>105.95315161000001</v>
+      </c>
+      <c r="B98" s="7">
+        <v>-0.41334528999999998</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="7">
+        <v>10.33481686</v>
+      </c>
+      <c r="F98" s="7">
+        <v>4.0128117899999998</v>
+      </c>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>18.92029243</v>
+      </c>
+      <c r="B99" s="7">
+        <v>-81.818814099999997</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="7">
+        <v>-72.535954129999993</v>
+      </c>
+      <c r="F99" s="7">
+        <v>-79.784862399999994</v>
+      </c>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>90.291261219999996</v>
+      </c>
+      <c r="B100" s="7">
+        <v>-91.049749899999995</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="7">
+        <v>-1.4052984799999999</v>
+      </c>
+      <c r="F100" s="7">
+        <v>-86.940789199999998</v>
+      </c>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>18.175410939999999</v>
+      </c>
+      <c r="B101" s="7">
+        <v>109.53840071</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="7">
+        <v>-77.837461700000006</v>
+      </c>
+      <c r="F101" s="7">
+        <v>113.37367728</v>
+      </c>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>44.684509679999998</v>
+      </c>
+      <c r="B102" s="7">
+        <v>7.4839896799999996</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="7">
+        <v>-48.788441290000002</v>
+      </c>
+      <c r="F102" s="7">
+        <v>10.164481329999999</v>
+      </c>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>-7.5785065999999999</v>
+      </c>
+      <c r="B103" s="7">
+        <v>-49.076079960000001</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="7">
+        <v>-98.809621859999993</v>
+      </c>
+      <c r="F103" s="7">
+        <v>-48.037899930000002</v>
+      </c>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>52.737525890000001</v>
+      </c>
+      <c r="B104" s="7">
+        <v>-93.140337689999996</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="7">
+        <v>-38.923454380000003</v>
+      </c>
+      <c r="F104" s="7">
+        <v>-90.034454120000007</v>
+      </c>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>-9.4443353200000004</v>
+      </c>
+      <c r="B108" s="7">
+        <v>96.236977800000005</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="7">
+        <v>-105.38075971000001</v>
+      </c>
+      <c r="F108" s="7">
+        <v>98.756623669999996</v>
+      </c>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>85.03343667</v>
+      </c>
+      <c r="B109" s="7">
+        <v>103.73355789</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="7">
+        <v>-10.12665353</v>
+      </c>
+      <c r="F109" s="7">
+        <v>109.69320921000001</v>
+      </c>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>-2.3177515400000002</v>
+      </c>
+      <c r="B110" s="7">
+        <v>-6.0060540299999996</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="7">
+        <v>-95.024874159999996</v>
+      </c>
+      <c r="F110" s="7">
+        <v>-4.84773897</v>
+      </c>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>105.95036955</v>
+      </c>
+      <c r="B111" s="7">
+        <v>-0.41347773999999998</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="7">
+        <v>10.333872339999999</v>
+      </c>
+      <c r="F111" s="7">
+        <v>4.0124499699999996</v>
+      </c>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>18.919149220000001</v>
+      </c>
+      <c r="B112" s="7">
+        <v>-81.818061740000005</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="7">
+        <v>-72.540370480000007</v>
+      </c>
+      <c r="F112" s="7">
+        <v>-79.788140949999999</v>
+      </c>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>90.288892919999995</v>
+      </c>
+      <c r="B113" s="7">
+        <v>-91.049794829999996</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="7">
+        <v>-1.40631507</v>
+      </c>
+      <c r="F113" s="7">
+        <v>-86.940813079999998</v>
+      </c>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>18.17397205</v>
+      </c>
+      <c r="B114" s="7">
+        <v>109.53957964999999</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="7">
+        <v>-77.842372249999997</v>
+      </c>
+      <c r="F114" s="7">
+        <v>113.37689028</v>
+      </c>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>44.681023160000002</v>
+      </c>
+      <c r="B115" s="7">
+        <v>7.4834268899999996</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="7">
+        <v>-48.786766149999998</v>
+      </c>
+      <c r="F115" s="7">
+        <v>10.164032280000001</v>
+      </c>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>-7.5784516000000002</v>
+      </c>
+      <c r="B116" s="7">
+        <v>-49.073604539999998</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="7">
+        <v>-98.815876709999998</v>
+      </c>
+      <c r="F116" s="7">
+        <v>-48.040298649999997</v>
+      </c>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>52.73626719</v>
+      </c>
+      <c r="B117" s="7">
+        <v>-93.140978419999996</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="7">
+        <v>-38.925615999999998</v>
+      </c>
+      <c r="F117" s="7">
+        <v>-90.036576339999996</v>
+      </c>
+      <c r="G117" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>